--- a/medicine/Mort/Peine_de_mort_au_Brunei/Peine_de_mort_au_Brunei.xlsx
+++ b/medicine/Mort/Peine_de_mort_au_Brunei/Peine_de_mort_au_Brunei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Brunei, la peine de mort est une sanction légale prévue par le code pénal qui n'a jamais été appliquée depuis que le pays a accédé à l'indépendance en 1984. La dernière exécution au Brunei a eu lieu en 1957, alors que le pays était encore un protectorat du Royaume-Uni.
 </t>
@@ -511,9 +523,11 @@
           <t>Crimes punis de la peine de mort</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les crimes passibles de la peine de morts sont[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les crimes passibles de la peine de morts sont :
 le meurtre,
 le terrorisme,
 le trafic de drogue[note 1],
@@ -554,9 +568,11 @@
           <t>Procédure / Application selon les infractions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les méthodes légales d'exécution au Brunei sont la pendaison et, depuis 2014, la lapidation[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les méthodes légales d'exécution au Brunei sont la pendaison et, depuis 2014, la lapidation.
 </t>
         </is>
       </c>
@@ -585,9 +601,11 @@
           <t>Ces dernières années</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'heure actuelle, on estime qu'il y a environ six personnes dans le couloir de la mort au Brunei. La dernière condamnation à mort connue a été prononcée en 2017[4] et une condamnation à mort a été commuée en 2009[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'heure actuelle, on estime qu'il y a environ six personnes dans le couloir de la mort au Brunei. La dernière condamnation à mort connue a été prononcée en 2017 et une condamnation à mort a été commuée en 2009.
 </t>
         </is>
       </c>
